--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver 3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7AC3A2DE-7B4E-4CAF-9330-CA1EB7C5B98C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E3EED-3328-4538-A9B7-B573A7749E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,7 +2661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2689,6 +2689,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2973,8 +2980,8 @@
   <dimension ref="A1:P460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A24" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E28" sqref="E28:E128"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M3" sqref="M3:M138"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3075,6 +3082,12 @@
       <c r="M2" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N2" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O2" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P2" s="4"/>
     </row>
     <row r="3" spans="1:16" x14ac:dyDescent="0.3">
@@ -3131,6 +3144,12 @@
       <c r="M4" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N4" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O4" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P4" s="4"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.3">
@@ -3184,6 +3203,12 @@
       <c r="M6" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N6" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O6" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P6" s="4"/>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.3">
@@ -3240,6 +3265,12 @@
       <c r="M8" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N8" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O8" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P8" s="4"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.3">
@@ -3410,6 +3441,12 @@
       <c r="M13" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="N13" s="14">
+        <v>21.0158086</v>
+      </c>
+      <c r="O13" s="12">
+        <v>105.6591636</v>
+      </c>
       <c r="P13" s="4"/>
     </row>
     <row r="14" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -3446,6 +3483,12 @@
       <c r="M14" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="N14" s="14">
+        <v>21.0158086</v>
+      </c>
+      <c r="O14" s="12">
+        <v>105.6591636</v>
+      </c>
       <c r="P14" s="4"/>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.3">
@@ -3910,7 +3953,12 @@
       <c r="M30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="7"/>
+      <c r="N30" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O30" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P30" s="4"/>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
@@ -4151,6 +4199,12 @@
       <c r="M37" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N37" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O37" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P37" s="4"/>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
@@ -4249,6 +4303,12 @@
       <c r="M40" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N40" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O40" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P40" s="1">
         <v>1</v>
       </c>
@@ -4360,6 +4420,12 @@
       <c r="M43" s="8" t="s">
         <v>786</v>
       </c>
+      <c r="N43" s="14">
+        <v>21.0158086</v>
+      </c>
+      <c r="O43" s="12">
+        <v>105.6591636</v>
+      </c>
       <c r="P43" s="4"/>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
@@ -4455,6 +4521,12 @@
       <c r="M46" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N46" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O46" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P46" s="1">
         <v>1</v>
       </c>
@@ -4496,6 +4568,12 @@
       <c r="M47" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N47" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O47" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P47" s="4"/>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
@@ -4604,6 +4682,12 @@
       <c r="M50" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N50" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O50" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P50" s="1">
         <v>1</v>
       </c>
@@ -4750,7 +4834,12 @@
       <c r="M54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N54" s="7"/>
+      <c r="N54" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O54" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P54" s="4"/>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
@@ -5075,6 +5164,12 @@
       <c r="M63" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N63" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O63" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P63" s="1">
         <v>1</v>
       </c>
@@ -5110,7 +5205,12 @@
       <c r="M64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="7"/>
+      <c r="N64" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O64" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P64" s="1">
         <v>2</v>
       </c>
@@ -5396,6 +5496,12 @@
       <c r="M74" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N74" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O74" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P74" s="4"/>
     </row>
     <row r="75" spans="1:16" ht="72" x14ac:dyDescent="0.3">
@@ -5435,6 +5541,12 @@
       <c r="M75" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N75" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O75" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P75" s="4"/>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
@@ -5728,6 +5840,12 @@
       <c r="M84" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N84" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O84" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P84" s="1">
         <v>2</v>
       </c>
@@ -5763,6 +5881,12 @@
       <c r="M85" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N85" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O85" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P85" s="1">
         <v>1</v>
       </c>
@@ -5986,6 +6110,12 @@
       <c r="M92" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N92" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O92" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P92" s="4"/>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
@@ -6025,6 +6155,12 @@
       <c r="M93" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N93" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O93" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P93" s="4"/>
     </row>
     <row r="94" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -6103,6 +6239,12 @@
       <c r="M95" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N95" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O95" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P95" s="4"/>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
@@ -6142,6 +6284,12 @@
       <c r="M96" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N96" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O96" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P96" s="4"/>
     </row>
     <row r="97" spans="1:16" ht="43.2" x14ac:dyDescent="0.3">
@@ -6217,6 +6365,12 @@
       <c r="M98" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N98" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O98" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P98" s="4"/>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
@@ -6319,6 +6473,12 @@
       <c r="M101" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N101" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O101" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P101" s="1">
         <v>1</v>
       </c>
@@ -6526,7 +6686,12 @@
       <c r="M107" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N107" s="7"/>
+      <c r="N107" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O107" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P107" s="1">
         <v>1</v>
       </c>
@@ -6719,7 +6884,12 @@
       <c r="M113" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N113" s="7"/>
+      <c r="N113" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O113" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P113" s="4"/>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
@@ -6798,6 +6968,12 @@
       <c r="M115" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N115" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O115" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P115" s="4"/>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
@@ -6831,6 +7007,12 @@
       <c r="M116" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N116" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O116" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P116" s="4"/>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
@@ -6864,6 +7046,12 @@
       <c r="M117" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N117" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O117" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P117" s="4"/>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
@@ -6969,6 +7157,12 @@
       <c r="M120" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N120" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O120" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P120" s="4"/>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
@@ -7008,6 +7202,12 @@
       <c r="M121" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N121" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O121" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P121" s="4"/>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
@@ -7188,6 +7388,12 @@
       <c r="M126" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N126" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O126" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P126" s="4"/>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
@@ -7269,7 +7475,12 @@
       <c r="M129" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N129" s="7"/>
+      <c r="N129" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O129" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P129" s="1">
         <v>1</v>
       </c>
@@ -7302,7 +7513,12 @@
       <c r="M130" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N130" s="7"/>
+      <c r="N130" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O130" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P130" s="1">
         <v>2</v>
       </c>
@@ -7370,6 +7586,12 @@
       <c r="M132" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N132" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O132" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P132" s="1">
         <v>1</v>
       </c>
@@ -7405,7 +7627,12 @@
       <c r="M133" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N133" s="7"/>
+      <c r="N133" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O133" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P133" s="1">
         <v>1</v>
       </c>
@@ -7441,6 +7668,12 @@
       <c r="M134" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N134" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O134" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P134" s="1">
         <v>1</v>
       </c>
@@ -7528,6 +7761,12 @@
       <c r="M137" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N137" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O137" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P137" s="1">
         <v>1</v>
       </c>
@@ -7612,7 +7851,12 @@
       <c r="M140" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N140" s="7"/>
+      <c r="N140" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O140" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P140" s="1">
         <v>2</v>
       </c>
@@ -7683,7 +7927,12 @@
       <c r="M142" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N142" s="7"/>
+      <c r="N142" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O142" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P142" s="1">
         <v>1</v>
       </c>
@@ -7719,6 +7968,12 @@
       <c r="M143" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N143" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O143" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P143" s="1">
         <v>1</v>
       </c>
@@ -8235,6 +8490,12 @@
       <c r="M160" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N160" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O160" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P160" s="4"/>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
@@ -8271,6 +8532,12 @@
       <c r="M161" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N161" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O161" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P161" s="4"/>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
@@ -8372,6 +8639,12 @@
       <c r="M164" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N164" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O164" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P164" s="4"/>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
@@ -8499,6 +8772,12 @@
       <c r="M168" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N168" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O168" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P168" s="4"/>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
@@ -8532,6 +8811,12 @@
       <c r="M169" s="8" t="s">
         <v>776</v>
       </c>
+      <c r="N169" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O169" s="12">
+        <v>105.6635374</v>
+      </c>
       <c r="P169" s="4"/>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
@@ -8607,6 +8892,12 @@
       <c r="M171" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N171" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O171" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P171" s="4"/>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
@@ -8646,6 +8937,12 @@
       <c r="M172" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N172" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O172" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P172" s="4"/>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
@@ -8823,6 +9120,12 @@
       </c>
       <c r="M179" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="N179" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O179" s="12">
+        <v>105.6470535</v>
       </c>
       <c r="P179" s="1">
         <v>1</v>
@@ -9041,6 +9344,12 @@
       <c r="M188" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N188" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O188" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P188" s="1">
         <v>1</v>
       </c>
@@ -9076,6 +9385,12 @@
       <c r="M189" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N189" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O189" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P189" s="1">
         <v>1</v>
       </c>
@@ -9457,6 +9772,12 @@
       <c r="M203" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N203" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O203" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P203" s="4"/>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
@@ -9670,6 +9991,12 @@
       <c r="M211" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N211" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O211" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P211" s="4"/>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
@@ -9781,6 +10108,12 @@
       <c r="M215" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N215" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O215" s="12">
+        <v>105.6470535</v>
+      </c>
       <c r="P215" s="4"/>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
@@ -10235,6 +10568,12 @@
       <c r="M233" s="8" t="s">
         <v>778</v>
       </c>
+      <c r="N233" s="14">
+        <v>21.015167600000002</v>
+      </c>
+      <c r="O233" s="12">
+        <v>105.6518626</v>
+      </c>
       <c r="P233" s="4"/>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
@@ -10355,6 +10694,12 @@
       </c>
       <c r="M237" s="8" t="s">
         <v>776</v>
+      </c>
+      <c r="N237" s="14">
+        <v>21.0189591</v>
+      </c>
+      <c r="O237" s="12">
+        <v>105.6635374</v>
       </c>
       <c r="P237" s="4"/>
     </row>
@@ -13631,6 +13976,12 @@
       </c>
       <c r="M370" s="8" t="s">
         <v>62</v>
+      </c>
+      <c r="N370" s="13">
+        <v>21.012682099999999</v>
+      </c>
+      <c r="O370" s="12">
+        <v>105.6470535</v>
       </c>
       <c r="P370" s="4"/>
     </row>

--- a/input.xlsx
+++ b/input.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Phả hệ\DuongDanh_pha_he\Ver 3.3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{831E3EED-3328-4538-A9B7-B573A7749E9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B4E020E-6CD2-4826-8DEE-F0E53AD73021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2661,7 +2661,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2689,13 +2689,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2980,8 +2973,8 @@
   <dimension ref="A1:P460"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M3" sqref="M3:M138"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N462" sqref="N462:O462"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3082,11 +3075,11 @@
       <c r="M2" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N2" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O2" s="12">
-        <v>105.6635374</v>
+      <c r="N2" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O2">
+        <v>105.666575814257</v>
       </c>
       <c r="P2" s="4"/>
     </row>
@@ -3144,11 +3137,11 @@
       <c r="M4" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N4" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O4" s="12">
-        <v>105.6635374</v>
+      <c r="N4" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O4">
+        <v>105.666575814257</v>
       </c>
       <c r="P4" s="4"/>
     </row>
@@ -3203,11 +3196,11 @@
       <c r="M6" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N6" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O6" s="12">
-        <v>105.6635374</v>
+      <c r="N6" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O6">
+        <v>105.666575814257</v>
       </c>
       <c r="P6" s="4"/>
     </row>
@@ -3265,11 +3258,11 @@
       <c r="M8" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N8" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O8" s="12">
-        <v>105.6635374</v>
+      <c r="N8" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O8">
+        <v>105.666575814257</v>
       </c>
       <c r="P8" s="4"/>
     </row>
@@ -3324,6 +3317,12 @@
       <c r="M10" s="8" t="s">
         <v>62</v>
       </c>
+      <c r="N10" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O10">
+        <v>105.65060486244001</v>
+      </c>
       <c r="P10" s="4"/>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.3">
@@ -3441,11 +3440,11 @@
       <c r="M13" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="N13" s="14">
-        <v>21.0158086</v>
-      </c>
-      <c r="O13" s="12">
-        <v>105.6591636</v>
+      <c r="N13" s="8">
+        <v>21.016309601299501</v>
+      </c>
+      <c r="O13">
+        <v>105.65990582900299</v>
       </c>
       <c r="P13" s="4"/>
     </row>
@@ -3483,11 +3482,11 @@
       <c r="M14" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="N14" s="14">
-        <v>21.0158086</v>
-      </c>
-      <c r="O14" s="12">
-        <v>105.6591636</v>
+      <c r="N14" s="8">
+        <v>21.016309601299501</v>
+      </c>
+      <c r="O14">
+        <v>105.65990582900299</v>
       </c>
       <c r="P14" s="4"/>
     </row>
@@ -3953,11 +3952,11 @@
       <c r="M30" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N30" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O30" s="12">
-        <v>105.6470535</v>
+      <c r="N30" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O30">
+        <v>105.65060486244001</v>
       </c>
       <c r="P30" s="4"/>
     </row>
@@ -4199,11 +4198,11 @@
       <c r="M37" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N37" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O37" s="12">
-        <v>105.6518626</v>
+      <c r="N37" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O37">
+        <v>105.655111203495</v>
       </c>
       <c r="P37" s="4"/>
     </row>
@@ -4303,11 +4302,11 @@
       <c r="M40" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N40" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O40" s="12">
-        <v>105.6635374</v>
+      <c r="N40" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O40">
+        <v>105.666575814257</v>
       </c>
       <c r="P40" s="1">
         <v>1</v>
@@ -4420,11 +4419,11 @@
       <c r="M43" s="8" t="s">
         <v>786</v>
       </c>
-      <c r="N43" s="14">
-        <v>21.0158086</v>
-      </c>
-      <c r="O43" s="12">
-        <v>105.6591636</v>
+      <c r="N43" s="8">
+        <v>21.016309601299501</v>
+      </c>
+      <c r="O43">
+        <v>105.65990582900299</v>
       </c>
       <c r="P43" s="4"/>
     </row>
@@ -4521,11 +4520,11 @@
       <c r="M46" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N46" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O46" s="12">
-        <v>105.6470535</v>
+      <c r="N46" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O46">
+        <v>105.65060486244001</v>
       </c>
       <c r="P46" s="1">
         <v>1</v>
@@ -4568,11 +4567,11 @@
       <c r="M47" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N47" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O47" s="12">
-        <v>105.6470535</v>
+      <c r="N47" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O47">
+        <v>105.65060486244001</v>
       </c>
       <c r="P47" s="4"/>
     </row>
@@ -4682,11 +4681,11 @@
       <c r="M50" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N50" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O50" s="12">
-        <v>105.6470535</v>
+      <c r="N50" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O50">
+        <v>105.65060486244001</v>
       </c>
       <c r="P50" s="1">
         <v>1</v>
@@ -4834,11 +4833,11 @@
       <c r="M54" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N54" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O54" s="12">
-        <v>105.6470535</v>
+      <c r="N54" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O54">
+        <v>105.65060486244001</v>
       </c>
       <c r="P54" s="4"/>
     </row>
@@ -5164,11 +5163,11 @@
       <c r="M63" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N63" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O63" s="12">
-        <v>105.6635374</v>
+      <c r="N63" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O63">
+        <v>105.666575814257</v>
       </c>
       <c r="P63" s="1">
         <v>1</v>
@@ -5205,11 +5204,11 @@
       <c r="M64" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N64" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O64" s="12">
-        <v>105.6470535</v>
+      <c r="N64" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O64">
+        <v>105.65060486244001</v>
       </c>
       <c r="P64" s="1">
         <v>2</v>
@@ -5496,11 +5495,11 @@
       <c r="M74" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N74" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O74" s="12">
-        <v>105.6635374</v>
+      <c r="N74" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O74">
+        <v>105.666575814257</v>
       </c>
       <c r="P74" s="4"/>
     </row>
@@ -5541,11 +5540,11 @@
       <c r="M75" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N75" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O75" s="12">
-        <v>105.6518626</v>
+      <c r="N75" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O75">
+        <v>105.655111203495</v>
       </c>
       <c r="P75" s="4"/>
     </row>
@@ -5840,11 +5839,11 @@
       <c r="M84" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N84" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O84" s="12">
-        <v>105.6635374</v>
+      <c r="N84" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O84">
+        <v>105.666575814257</v>
       </c>
       <c r="P84" s="1">
         <v>2</v>
@@ -5881,11 +5880,11 @@
       <c r="M85" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N85" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O85" s="12">
-        <v>105.6470535</v>
+      <c r="N85" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O85">
+        <v>105.65060486244001</v>
       </c>
       <c r="P85" s="1">
         <v>1</v>
@@ -6110,11 +6109,11 @@
       <c r="M92" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N92" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O92" s="12">
-        <v>105.6518626</v>
+      <c r="N92" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O92">
+        <v>105.655111203495</v>
       </c>
       <c r="P92" s="4"/>
     </row>
@@ -6155,11 +6154,11 @@
       <c r="M93" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N93" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O93" s="12">
-        <v>105.6635374</v>
+      <c r="N93" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O93">
+        <v>105.666575814257</v>
       </c>
       <c r="P93" s="4"/>
     </row>
@@ -6239,11 +6238,11 @@
       <c r="M95" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N95" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O95" s="12">
-        <v>105.6470535</v>
+      <c r="N95" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O95">
+        <v>105.65060486244001</v>
       </c>
       <c r="P95" s="4"/>
     </row>
@@ -6284,11 +6283,11 @@
       <c r="M96" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N96" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O96" s="12">
-        <v>105.6470535</v>
+      <c r="N96" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O96">
+        <v>105.65060486244001</v>
       </c>
       <c r="P96" s="4"/>
     </row>
@@ -6365,11 +6364,11 @@
       <c r="M98" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N98" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O98" s="12">
-        <v>105.6470535</v>
+      <c r="N98" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O98">
+        <v>105.65060486244001</v>
       </c>
       <c r="P98" s="4"/>
     </row>
@@ -6473,11 +6472,11 @@
       <c r="M101" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N101" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O101" s="12">
-        <v>105.6470535</v>
+      <c r="N101" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O101">
+        <v>105.65060486244001</v>
       </c>
       <c r="P101" s="1">
         <v>1</v>
@@ -6686,11 +6685,11 @@
       <c r="M107" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N107" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O107" s="12">
-        <v>105.6470535</v>
+      <c r="N107" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O107">
+        <v>105.65060486244001</v>
       </c>
       <c r="P107" s="1">
         <v>1</v>
@@ -6884,11 +6883,11 @@
       <c r="M113" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N113" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O113" s="12">
-        <v>105.6470535</v>
+      <c r="N113" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O113">
+        <v>105.65060486244001</v>
       </c>
       <c r="P113" s="4"/>
     </row>
@@ -6968,11 +6967,11 @@
       <c r="M115" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N115" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O115" s="12">
-        <v>105.6470535</v>
+      <c r="N115" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O115">
+        <v>105.65060486244001</v>
       </c>
       <c r="P115" s="4"/>
     </row>
@@ -7007,11 +7006,11 @@
       <c r="M116" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N116" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O116" s="12">
-        <v>105.6518626</v>
+      <c r="N116" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O116">
+        <v>105.655111203495</v>
       </c>
       <c r="P116" s="4"/>
     </row>
@@ -7046,11 +7045,11 @@
       <c r="M117" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N117" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O117" s="12">
-        <v>105.6518626</v>
+      <c r="N117" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O117">
+        <v>105.655111203495</v>
       </c>
       <c r="P117" s="4"/>
     </row>
@@ -7157,11 +7156,11 @@
       <c r="M120" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N120" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O120" s="12">
-        <v>105.6470535</v>
+      <c r="N120" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O120">
+        <v>105.65060486244001</v>
       </c>
       <c r="P120" s="4"/>
     </row>
@@ -7202,11 +7201,11 @@
       <c r="M121" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N121" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O121" s="12">
-        <v>105.6518626</v>
+      <c r="N121" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O121">
+        <v>105.655111203495</v>
       </c>
       <c r="P121" s="4"/>
     </row>
@@ -7388,11 +7387,11 @@
       <c r="M126" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N126" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O126" s="12">
-        <v>105.6518626</v>
+      <c r="N126" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O126">
+        <v>105.655111203495</v>
       </c>
       <c r="P126" s="4"/>
     </row>
@@ -7475,11 +7474,11 @@
       <c r="M129" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N129" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O129" s="12">
-        <v>105.6470535</v>
+      <c r="N129" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O129">
+        <v>105.65060486244001</v>
       </c>
       <c r="P129" s="1">
         <v>1</v>
@@ -7513,11 +7512,11 @@
       <c r="M130" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="N130" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O130" s="12">
-        <v>105.6470535</v>
+      <c r="N130" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O130">
+        <v>105.65060486244001</v>
       </c>
       <c r="P130" s="1">
         <v>2</v>
@@ -7586,11 +7585,11 @@
       <c r="M132" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N132" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O132" s="12">
-        <v>105.6470535</v>
+      <c r="N132" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O132">
+        <v>105.65060486244001</v>
       </c>
       <c r="P132" s="1">
         <v>1</v>
@@ -7627,11 +7626,11 @@
       <c r="M133" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N133" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O133" s="12">
-        <v>105.6518626</v>
+      <c r="N133" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O133">
+        <v>105.655111203495</v>
       </c>
       <c r="P133" s="1">
         <v>1</v>
@@ -7668,11 +7667,11 @@
       <c r="M134" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N134" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O134" s="12">
-        <v>105.6518626</v>
+      <c r="N134" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O134">
+        <v>105.655111203495</v>
       </c>
       <c r="P134" s="1">
         <v>1</v>
@@ -7761,11 +7760,11 @@
       <c r="M137" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N137" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O137" s="12">
-        <v>105.6470535</v>
+      <c r="N137" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O137">
+        <v>105.65060486244001</v>
       </c>
       <c r="P137" s="1">
         <v>1</v>
@@ -7851,11 +7850,11 @@
       <c r="M140" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N140" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O140" s="12">
-        <v>105.6518626</v>
+      <c r="N140" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O140">
+        <v>105.655111203495</v>
       </c>
       <c r="P140" s="1">
         <v>2</v>
@@ -7927,11 +7926,11 @@
       <c r="M142" s="10" t="s">
         <v>778</v>
       </c>
-      <c r="N142" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O142" s="12">
-        <v>105.6518626</v>
+      <c r="N142" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O142">
+        <v>105.655111203495</v>
       </c>
       <c r="P142" s="1">
         <v>1</v>
@@ -7968,11 +7967,11 @@
       <c r="M143" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N143" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O143" s="12">
-        <v>105.6518626</v>
+      <c r="N143" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O143">
+        <v>105.655111203495</v>
       </c>
       <c r="P143" s="1">
         <v>1</v>
@@ -8490,11 +8489,11 @@
       <c r="M160" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N160" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O160" s="12">
-        <v>105.6470535</v>
+      <c r="N160" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O160">
+        <v>105.65060486244001</v>
       </c>
       <c r="P160" s="4"/>
     </row>
@@ -8532,11 +8531,11 @@
       <c r="M161" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N161" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O161" s="12">
-        <v>105.6518626</v>
+      <c r="N161" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O161">
+        <v>105.655111203495</v>
       </c>
       <c r="P161" s="4"/>
     </row>
@@ -8639,11 +8638,11 @@
       <c r="M164" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N164" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O164" s="12">
-        <v>105.6518626</v>
+      <c r="N164" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O164">
+        <v>105.655111203495</v>
       </c>
       <c r="P164" s="4"/>
     </row>
@@ -8772,11 +8771,11 @@
       <c r="M168" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N168" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O168" s="12">
-        <v>105.6635374</v>
+      <c r="N168" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O168">
+        <v>105.666575814257</v>
       </c>
       <c r="P168" s="4"/>
     </row>
@@ -8811,11 +8810,11 @@
       <c r="M169" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N169" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O169" s="12">
-        <v>105.6635374</v>
+      <c r="N169" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O169">
+        <v>105.666575814257</v>
       </c>
       <c r="P169" s="4"/>
     </row>
@@ -8892,11 +8891,11 @@
       <c r="M171" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N171" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O171" s="12">
-        <v>105.6470535</v>
+      <c r="N171" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O171">
+        <v>105.65060486244001</v>
       </c>
       <c r="P171" s="4"/>
     </row>
@@ -8937,11 +8936,11 @@
       <c r="M172" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N172" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O172" s="12">
-        <v>105.6470535</v>
+      <c r="N172" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O172">
+        <v>105.65060486244001</v>
       </c>
       <c r="P172" s="4"/>
     </row>
@@ -9121,11 +9120,11 @@
       <c r="M179" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N179" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O179" s="12">
-        <v>105.6470535</v>
+      <c r="N179" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O179">
+        <v>105.65060486244001</v>
       </c>
       <c r="P179" s="1">
         <v>1</v>
@@ -9344,11 +9343,11 @@
       <c r="M188" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N188" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O188" s="12">
-        <v>105.6518626</v>
+      <c r="N188" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O188">
+        <v>105.655111203495</v>
       </c>
       <c r="P188" s="1">
         <v>1</v>
@@ -9385,11 +9384,11 @@
       <c r="M189" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N189" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O189" s="12">
-        <v>105.6470535</v>
+      <c r="N189" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O189">
+        <v>105.65060486244001</v>
       </c>
       <c r="P189" s="1">
         <v>1</v>
@@ -9772,11 +9771,11 @@
       <c r="M203" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N203" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O203" s="12">
-        <v>105.6518626</v>
+      <c r="N203" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O203">
+        <v>105.655111203495</v>
       </c>
       <c r="P203" s="4"/>
     </row>
@@ -9991,11 +9990,11 @@
       <c r="M211" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N211" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O211" s="12">
-        <v>105.6518626</v>
+      <c r="N211" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O211">
+        <v>105.655111203495</v>
       </c>
       <c r="P211" s="4"/>
     </row>
@@ -10108,11 +10107,11 @@
       <c r="M215" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N215" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O215" s="12">
-        <v>105.6470535</v>
+      <c r="N215" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O215">
+        <v>105.65060486244001</v>
       </c>
       <c r="P215" s="4"/>
     </row>
@@ -10568,11 +10567,11 @@
       <c r="M233" s="8" t="s">
         <v>778</v>
       </c>
-      <c r="N233" s="14">
-        <v>21.015167600000002</v>
-      </c>
-      <c r="O233" s="12">
-        <v>105.6518626</v>
+      <c r="N233" s="8">
+        <v>21.017046103716801</v>
+      </c>
+      <c r="O233">
+        <v>105.655111203495</v>
       </c>
       <c r="P233" s="4"/>
     </row>
@@ -10695,11 +10694,11 @@
       <c r="M237" s="8" t="s">
         <v>776</v>
       </c>
-      <c r="N237" s="14">
-        <v>21.0189591</v>
-      </c>
-      <c r="O237" s="12">
-        <v>105.6635374</v>
+      <c r="N237" s="8">
+        <v>21.021014219286901</v>
+      </c>
+      <c r="O237">
+        <v>105.666575814257</v>
       </c>
       <c r="P237" s="4"/>
     </row>
@@ -13977,11 +13976,11 @@
       <c r="M370" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="N370" s="13">
-        <v>21.012682099999999</v>
-      </c>
-      <c r="O370" s="12">
-        <v>105.6470535</v>
+      <c r="N370" s="8">
+        <v>21.0129386402952</v>
+      </c>
+      <c r="O370">
+        <v>105.65060486244001</v>
       </c>
       <c r="P370" s="4"/>
     </row>
